--- a/temp.xlsx
+++ b/temp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -22,145 +22,346 @@
     <t>Times Spoke</t>
   </si>
   <si>
-    <t>AMERASINGHE</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>GUERREIRO</t>
+    <t>AC.</t>
+  </si>
+  <si>
+    <t>-------</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>A/CONF.62/L.132, annex IV</t>
+  </si>
+  <si>
+    <t>II, III</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>A/CONF.62/L.94</t>
+  </si>
+  <si>
+    <t>III,</t>
+  </si>
+  <si>
+    <t>IV,</t>
+  </si>
+  <si>
+    <t>IV.</t>
+  </si>
+  <si>
+    <t>KAMANDA</t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>LEBEAUPIN</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Miss DEVER</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Mr. AGUILAR</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Mr. AL JUFAIRI</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Mr. ARIAS SCHREIBER</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Mr. BALETA</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Mr. BEESLEY</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Mr. BOS</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Mr. BOUCHER</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Mr. CALERO RODRIGUES</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>JACKL1NG</t>
+    <t>Mr. CARIAS</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Mr. CHARRY SAMPER</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Mr. CHAYET</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Mr. CISSE</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mr. ENGO</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Mr. ENKHSAIKHAN</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Mr. GIORGOLO</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Mr. GOERNER</t>
+  </si>
+  <si>
+    <t>German Democratic Republic</t>
+  </si>
+  <si>
+    <t>Mr. JUNG</t>
+  </si>
+  <si>
+    <t>Federal Republic of Germany</t>
+  </si>
+  <si>
+    <t>Mr. KAMANDA</t>
+  </si>
+  <si>
+    <t>Mr. KASEMSRI</t>
+  </si>
+  <si>
+    <t>Mr. KASEMSRI (</t>
+  </si>
+  <si>
+    <t>Mr. KIRCA</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Mr. KOH</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Mr. KOROMA</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Mr. KOZYREV</t>
+  </si>
+  <si>
+    <t>Union of Soviet Socialist Republics</t>
+  </si>
+  <si>
+    <t>Mr. KRYSTOSIK</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Mr. LACLETA MUNOZ</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Mr. LUCIO PAREDES</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Mr. LUPINACCI</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Mr. MALONE</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Mr. MARINESCU</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Mr. MHLANGA</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Mr. MOMTAZ</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Mr. MONNIER</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Mr. MORSHED</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Mr. MWANANG'ONZE</t>
+  </si>
+  <si>
+    <t>Mr. NAKAGAWA</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mr. OMAR</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Mr. PINTO</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Mr. POWELL-JONES</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Miss FLOURET</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Mr. AKE</t>
-  </si>
-  <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
-    <t>Mr. BEESLEY</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Mr. BOATEN</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Mr. BOJILOV</t>
+    <t>Mr. PRANDLER</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Mr. RATINER</t>
+  </si>
+  <si>
+    <t>Mr. ROSENNE</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Mr. SHASH</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Mr. SHEN</t>
+  </si>
+  <si>
+    <t>Mr. SHIN</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Mr. TARCICI</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Mr. TORRAS</t>
+  </si>
+  <si>
+    <t>Mr. UL-HAQUE</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Mr. VARVESI</t>
+  </si>
+  <si>
+    <t>Mr. WOLF</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Mr. YANKOV</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Mr. CASTANEDA</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mr. CISSE</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Mr. DJALAL</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Mr. DRISS</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Mr. HADDAD</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Mr. HARRY</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Mr. KNOK.E</t>
-  </si>
-  <si>
-    <t>Federal Republic of Germany</t>
-  </si>
-  <si>
-    <t>Mr. KNOKE</t>
-  </si>
-  <si>
-    <t>Mr. MAHMOOD</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Mr. MIGLIUOLO</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Mr. NJENGA</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Mr. POCH</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Mr. SHITTA-BEY</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Mr. STEVENSON</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Mr. WAPENYI</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Mr. WARIOBA</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
+    <t>Mr. YATIM</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Mr. ZEGERS</t>
@@ -169,25 +370,55 @@
     <t>Chile</t>
   </si>
   <si>
-    <t>Mr. ZELAYA</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Mr. ZULETA TORRES</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>PRESI DENT</t>
-  </si>
-  <si>
-    <t>-------</t>
+    <t>Mr. ZULETA</t>
+  </si>
+  <si>
+    <t>Special Representative of the Secretary-General</t>
   </si>
   <si>
     <t>PRESIDENT</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>TCuwait,</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>XI,</t>
+  </si>
+  <si>
+    <t>XI.</t>
+  </si>
+  <si>
+    <t>XIII</t>
+  </si>
+  <si>
+    <t>XIII (</t>
+  </si>
+  <si>
+    <t>XIV</t>
+  </si>
+  <si>
+    <t>United Nations publication, Sales No. E.82.V.2</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>United Nations publication, Sales No. E.83.V.4</t>
+  </si>
+  <si>
+    <t>XV,</t>
+  </si>
+  <si>
+    <t>XVI</t>
+  </si>
+  <si>
+    <t>XVI (</t>
   </si>
 </sst>
 </file>
@@ -203,12 +434,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,8 +459,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,16 +801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C76"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -584,132 +821,132 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -717,54 +954,54 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -772,98 +1009,98 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -871,21 +1108,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -893,13 +1130,519 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
